--- a/Atelier_1/donnees/Canadiens.xlsx
+++ b/Atelier_1/donnees/Canadiens.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bera1923\Desktop\Présentation Beamer (Intro à R)\Capsule 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bera1923\Desktop\Ateliers_ALEA\Atelier_1\donnees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6A4EBC19-0703-47DE-8881-4C7EDD40119E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F780B2-7EBF-4954-94C9-F66DD1061690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{573A09C1-8AF1-4FF3-95FD-4BF5A8757BAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Tomas Tatar</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>Differentiel</t>
   </si>
   <si>
     <t>Parties jouees</t>
@@ -442,19 +439,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1779758F-F4BD-47CC-B991-87EEF967BE52}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -471,13 +468,10 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,16 +485,13 @@
         <v>61</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
         <v>68</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,16 +505,13 @@
         <v>47</v>
       </c>
       <c r="E3" s="1">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1">
         <v>71</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -537,16 +525,13 @@
         <v>44</v>
       </c>
       <c r="E4" s="1">
-        <v>-3</v>
-      </c>
-      <c r="F4" s="1">
         <v>71</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -560,16 +545,13 @@
         <v>43</v>
       </c>
       <c r="E5" s="1">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1">
         <v>59</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -583,16 +565,13 @@
         <v>41</v>
       </c>
       <c r="E6" s="1">
-        <v>-15</v>
-      </c>
-      <c r="F6" s="1">
         <v>71</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -606,16 +585,13 @@
         <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>-10</v>
-      </c>
-      <c r="F7" s="1">
         <v>71</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -629,16 +605,13 @@
         <v>36</v>
       </c>
       <c r="E8" s="1">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
         <v>65</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -652,16 +625,13 @@
         <v>30</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
         <v>58</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -675,16 +645,13 @@
         <v>27</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
         <v>70</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -698,12 +665,9 @@
         <v>22</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
         <v>58</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
